--- a/TestData_K/K_68Bus_IBR_17.xlsx
+++ b/TestData_K/K_68Bus_IBR_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData_K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD890390-C907-4716-9742-A4054DD35855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23BFAAB-4CF7-4D00-80AA-7538E075F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -3297,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3353,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -3374,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3396,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3438,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3461,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -3482,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3566,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3587,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3629,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3716,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3768,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -3799,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3820,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -3862,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -3904,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3925,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3976,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -4017,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -4079,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4194,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4215,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -4236,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -4278,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -4299,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -4322,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -4345,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -4380,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="I57" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -4401,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -4442,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -4484,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4525,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4566,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="I69" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -4587,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4601,7 +4601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
